--- a/biology/Histoire de la zoologie et de la botanique/James_Hartley_Ashworth/James_Hartley_Ashworth.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/James_Hartley_Ashworth/James_Hartley_Ashworth.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Hartley Ashworth est un zoologiste britannique, né le 2 mai 1874 à Accrington, Lancashire et mort le 4 février 1936 à Édimbourg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie à Burnley, dans le Lancashire, puis à l’Owen's College de Manchester, où il obtient un Bachelor of Sciences en 1895. Il y suit les cours de Arthur Milnes Marshall (1852-1893) qui vont l’inciter à s’orienter vers la zoologie. Il part à Londres où il obtient un Doctorat of Sciences en 1899. C’est en 1898 qu’il fait paraître sa première publication sur l’anatomie du genre Xenia (Alcyonarian). F.W. Gamble et lui étudient l’anatomie du ver du genre Arenicola. Il séjourne à la station zoologique de Naples, l’un des centres de recherche les plus actifs en zoologie des invertébrés de l’époque.
 Il fait sa carrière à l’université d'Édimbourg où il est assistant (1900), maître assistant (1901), professeur de la zoologie des invertébrés (de 1919 à 1927), de zoologie (de 1927 à 1936) et enfin d’histoire naturelle. Il se marie avec Clara Hough en 1901. En 1905, il commence à donner des cours en zoologie médicale.
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sydney John Hickson (1936). James Hartley Ashworth. 1874-1936, Obituary Notices of Fellows of the Royal Society, 2 (5) : 204-211.  (ISSN 1479-571X)
 C.D. Waterston et A. Macmillan Shearer (2006). Former Fellows of The Royal Society of Edinburgh, 1783–2002 (deux volumes), Royal Society of Edinburgh (Edinburgh) : 1024 p.  (ISBN 0-902-198-84-X)</t>
